--- a/public/seeders/districts.xlsx
+++ b/public/seeders/districts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="659">
   <si>
     <t xml:space="preserve">soato</t>
   </si>
@@ -208,933 +208,864 @@
     <t xml:space="preserve">Xo`jaobod sh.</t>
   </si>
   <si>
-    <t xml:space="preserve">Андижан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andijon</t>
+    <t xml:space="preserve">Алатский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olot tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г.Алат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olot sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бухарский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buxoro tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Галлаасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gala Osiyo shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вабкентский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vobkent tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Вабкент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vobkent sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гиждуванский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`ijduvon tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Гиждуван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`ijduvon sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogon tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Каган</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogon sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каракульский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qorako`l tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Каракуль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qorako`l sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Караулбазарский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qorovulbozor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Каpаулбазаp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qorovulbozor sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пешкунский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshku tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Янгибозор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangibozor shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ромитанский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romitan tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Ромитан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romitan sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жондоpский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jondor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Жондор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jondor shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шафирканский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shofirkon tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Шафиркан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shofirkon sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арнасайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnasoy tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Голиблаp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`oliblar shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бахмальский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baxmal tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Усмат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O`smat shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галляаральский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`allaorol tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Галляарал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`allaorol sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джизакский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jizzax tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Уч-тепа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchtepa shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дустликский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do`stlik tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Дустлик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do`stlik sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зааминский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zomin tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Заамин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zomin shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарбдарский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarbdor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Зарбдар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarbdor shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мирзачульский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzacho`l tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Гагарин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagarin sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зафарабадский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zafarobod tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Зафарабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zafarobod shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пахтакорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxtakor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Пахтакор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxtakor sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фаришский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forish tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Янгикишлак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangiqishloq shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янгиободский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangiobod tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нп Баландчакир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balandchaqir a.p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гузарский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`uzor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Гузар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G`uzor sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дехканабадский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehqonobod tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Корашина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karashina shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камашинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qamashi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Камаши</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qamashi sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каршинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qarshi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Бешкент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beshkent sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касанский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koson tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Касан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koson sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китабский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitob tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Китаб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitob sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миришкорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirishkor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Янги Миришкор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangi Mirishkor shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мубарекский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muborak tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Мубарек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muborak sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нишанский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishon tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Янги-Нишан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangi Nishon sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касбинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasbi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Муглон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug`lon shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиракчинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiroqchi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Чиракчи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiroqchi sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шахрисабзский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahrisabz tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Шахрисабз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahrisabz sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яккабагский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yakkabog` tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Яккабаг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yakkabog` sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Канимехский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konimex tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Канимех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konimex shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кызылтепинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiziltepa tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Кызылтепа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiziltepa sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Навбахорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navbahor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нп Бешрабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beshrabot a.p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карманинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karmana tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Кармана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karmana shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нуратинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurota tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Нурата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurota sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тамдынский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomdi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Томдибулок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomdibuloq shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учкудукский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchquduq tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Учкудук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchquduq sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хатырчинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xatirchi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Янгирабод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangirabod sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мингбулакский pайон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mingbuloq tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Джумашуй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo`masho`y shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касансайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosonsoy tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Касансай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosonsoy sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наманганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namangan tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Ташбулак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshbuloq shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарынский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norin tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Хаккулабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaqqulobod sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Папский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Пап</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туракурганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To`raqo`rg`on tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Туракурган</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To`raqo`rg`on sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уйчинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uychi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Уйчи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uychi shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учкурганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchqo`rg`on tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Учкурган</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchqo`rg`on sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чартакский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chortoq tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Чартак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chortoq sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чустский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chust tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Чуст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chust sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янгикурганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangiqo`rg`on tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Янгикурган</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangiqo`rg`on shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акдарьинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oqdaryo tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Лаиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyish shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Булунгурский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulung`ur tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Булунгур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulung`ur sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джамбайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomboy tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Джамбай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomboy sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иштыханский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishtixon tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Иштыхан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishtixon sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каттакурганский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kattaqo`rg`on tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Пайшанба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payshanba shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кошрабадский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qo`shrabot tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Кушрабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qo`shrabot shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарпайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narpay tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Акташ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oqtosh sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пайарыкский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payariq tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г.Пайаpык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payariq sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пастдаргомский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastdarg`om tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Джума</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juma sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пахтачийский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxtachi tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Зиатдин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziyovuddin shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самаркандский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samarqand tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Гулабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulobod shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нурабадский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurobod tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Нурабад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurobod sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ургутский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgut tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Ургут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgut sh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тайлякский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tayloq tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Тайлок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyloq shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алтынсайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oltinsoy tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Корлик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?орли?  ша?арчаси</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ангорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angor tumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гп Ангор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angor shaharchasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandixon tuman</t>
   </si>
   <si>
     <t xml:space="preserve">NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">Ханабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xonobod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алатский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olot tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Алат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olot sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бухарский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buxoro tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Галлаасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gala Osiyo shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вабкентский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vobkent tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Вабкент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vobkent sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гиждуванский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`ijduvon tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Гиждуван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`ijduvon sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kogon tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Каган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kogon sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каракульский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qorako`l tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Каракуль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qorako`l sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Караулбазарский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qorovulbozor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Каpаулбазаp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qorovulbozor sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пешкунский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshku tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Янгибозор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangibozor shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ромитанский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romitan tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Ромитан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romitan sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жондоpский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jondor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Жондор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jondor shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шафирканский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shofirkon tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Шафиркан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shofirkon sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бухара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buxoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kogon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арнасайский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnasoy tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Голиблаp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`oliblar shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бахмальский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baxmal tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Усмат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O`smat shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Галляаральский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`allaorol tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Галляарал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`allaorol sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джизакский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jizzax tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Уч-тепа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchtepa shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дустликский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do`stlik tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Дустлик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do`stlik sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зааминский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zomin tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Заамин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zomin shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зарбдарский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zarbdor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Зарбдар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zarbdor shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мирзачульский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirzacho`l tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Гагарин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagarin sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зафарабадский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zafarobod tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Зафарабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zafarobod shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пахтакорский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxtakor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Пахтакор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxtakor sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фаришский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forish tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Янгикишлак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangiqishloq shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янгиободский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangiobod tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нп Баландчакир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balandchaqir a.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джизак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jizzax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гузарский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`uzor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Гузар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G`uzor sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дехканабадский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehqonobod tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Корашина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karashina shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камашинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qamashi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Камаши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qamashi sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каршинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qarshi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Бешкент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beshkent sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касанский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koson tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Касан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koson sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китабский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitob tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Китаб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitob sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миришкорский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirishkor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Янги Миришкор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangi Mirishkor shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мубарекский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muborak tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Мубарек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muborak sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нишанский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishon tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Янги-Нишан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangi Nishon sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касбинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasbi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Муглон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mug`lon shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиракчинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiroqchi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Чиракчи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiroqchi sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шахрисабзский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahrisabz tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Шахрисабз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahrisabz sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яккабагский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yakkabog` tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Яккабаг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yakkabog` sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qarshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">город Шахрисабз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канимехский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konimex tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Канимех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konimex shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кызылтепинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qiziltepa tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Кызылтепа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qiziltepa sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Навбахорский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navbahor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нп Бешрабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beshrabot a.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карманинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karmana tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Кармана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karmana shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нуратинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurota tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Нурата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurota sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тамдынский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomdi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Томдибулок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomdibuloq shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учкудукский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchquduq tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Учкудук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchquduq sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хатырчинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xatirchi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Янгирабод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangirabod sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Навои</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navoiy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заpафшан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zarafshon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мингбулакский pайон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mingbuloq tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Джумашуй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jo`masho`y shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касансайский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosonsoy tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Касансай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosonsoy sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наманганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namangan tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Ташбулак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toshbuloq shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарынский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norin tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Хаккулабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xaqqulobod sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Папский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Пап</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Туракурганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To`raqo`rg`on tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Туракурган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To`raqo`rg`on sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уйчинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uychi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Уйчи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uychi shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учкурганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchqo`rg`on tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Учкурган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchqo`rg`on sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чартакский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chortoq tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Чартак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chortoq sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чустский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chust tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Чуст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chust sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янгикурганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangiqo`rg`on tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Янгикурган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangiqo`rg`on shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наманган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Акдарьинский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oqdaryo tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Лаиш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loyish shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Булунгурский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulung`ur tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Булунгур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulung`ur sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джамбайский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jomboy tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Джамбай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jomboy sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иштыханский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishtixon tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Иштыхан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishtixon sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каттакурганский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kattaqo`rg`on tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Пайшанба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payshanba shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кошрабадский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qo`shrabot tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Кушрабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qo`shrabot shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарпайский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narpay tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Акташ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oqtosh sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пайарыкский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payariq tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Пайаpык</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payariq sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пастдаргомский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastdarg`om tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Джума</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juma sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пахтачийский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxtachi tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Зиатдин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziyovuddin shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самаркандский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samarqand tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Гулабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulobod shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нурабадский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurobod tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Нурабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurobod sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ургутский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgut tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Ургут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgut sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тайлякский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tayloq tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Тайлок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toyloq shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самарканд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samarqand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каттакурган</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kattaqo`rg`on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алтынсайский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oltinsoy tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Корлик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?орли?  ша?арчаси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ангорский район</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angor tumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гп Ангор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angor shaharchasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandixon tuman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Байсунский район</t>
   </si>
   <si>
@@ -1267,12 +1198,6 @@
     <t xml:space="preserve">Sho`rchi sh.</t>
   </si>
   <si>
-    <t xml:space="preserve">Термез</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termiz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Акалтынский район</t>
   </si>
   <si>
@@ -1369,24 +1294,6 @@
     <t xml:space="preserve">Hovos shaharchasi</t>
   </si>
   <si>
-    <t xml:space="preserve">Гулистан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guliston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шиpин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shirin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янгиеp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangiyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Учтепинский район</t>
   </si>
   <si>
@@ -1621,36 +1528,6 @@
     <t xml:space="preserve">Ташкентский район</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Нурафшан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алмалык</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olmaliq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ангрен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бекабад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bekobod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Ахангаран</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиpчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirchiq</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алтыарыкский район</t>
   </si>
   <si>
@@ -1831,30 +1708,6 @@
     <t xml:space="preserve">Yozyovon shaharchasi</t>
   </si>
   <si>
-    <t xml:space="preserve">Фергана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farg`ona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коканд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qo`qon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кувасай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quvasoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маpгилан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marg`ilon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Багатский район</t>
   </si>
   <si>
@@ -1972,15 +1825,6 @@
     <t xml:space="preserve">Yangibozor tumani</t>
   </si>
   <si>
-    <t xml:space="preserve">Ургенч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urganch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">город Хива</t>
-  </si>
-  <si>
     <t xml:space="preserve">Амударьинский район</t>
   </si>
   <si>
@@ -2153,12 +1997,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bo`ston sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нукус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nukus</t>
   </si>
 </sst>
 </file>
@@ -2252,23 +2090,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2277,10 +2098,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2596,10 +2417,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>1703401</v>
+        <v>1706204</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -2611,3769 +2432,3199 @@
         <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>1703408</v>
+        <v>1706207</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>1706204</v>
+        <v>1706212</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>1706207</v>
+        <v>1706215</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>1706212</v>
+        <v>1706219</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>1706215</v>
+        <v>1706230</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>1706219</v>
+        <v>1706232</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>1706230</v>
+        <v>1706240</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>1706232</v>
+        <v>1706242</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>1706240</v>
+        <v>1706246</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>1706242</v>
+        <v>1706258</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1706</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>1706246</v>
+        <v>1708201</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>1706258</v>
+        <v>1708204</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>1706401</v>
+        <v>1708209</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>1706403</v>
+        <v>1708212</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>1708201</v>
+        <v>1708215</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>1708204</v>
+        <v>1708218</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>1708209</v>
+        <v>1708220</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>1708212</v>
+        <v>1708223</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>1708215</v>
+        <v>1708225</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>1708218</v>
+        <v>1708228</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>1708220</v>
+        <v>1708235</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>1708223</v>
+        <v>1708237</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1708</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>1708225</v>
+        <v>1710207</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>1708228</v>
+        <v>1710212</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>1708235</v>
+        <v>1710220</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>1708237</v>
+        <v>1710224</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>1708401</v>
+        <v>1710229</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>1710207</v>
+        <v>1710232</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>1710212</v>
+        <v>1710233</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>1710220</v>
+        <v>1710234</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>1710224</v>
+        <v>1710235</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>1710229</v>
+        <v>1710237</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>1710232</v>
+        <v>1710242</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>1710233</v>
+        <v>1710245</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>1710234</v>
+        <v>1710250</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1710</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>1710235</v>
+        <v>1712211</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>1710237</v>
+        <v>1712216</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>1710242</v>
+        <v>1712230</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>1710245</v>
+        <v>1712234</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>1710250</v>
+        <v>1712238</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>1710401</v>
+        <v>1712244</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>1710405</v>
+        <v>1712248</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>1712211</v>
+        <v>1712251</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1712</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>1712216</v>
+        <v>1714204</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>1712230</v>
+        <v>1714207</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>1712234</v>
+        <v>1714212</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>1712238</v>
+        <v>1714216</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>1712244</v>
+        <v>1714219</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>1712248</v>
+        <v>1714224</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>1712251</v>
+        <v>1714229</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>1712401</v>
+        <v>1714234</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>1712408</v>
+        <v>1714236</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>1714204</v>
+        <v>1714237</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>1714</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>1714207</v>
+        <v>1714242</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>1714</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>1714212</v>
+        <v>1718203</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>1714216</v>
+        <v>1718206</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>1714219</v>
+        <v>1718209</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>1714224</v>
+        <v>1718212</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>1714229</v>
+        <v>1718215</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>1714234</v>
+        <v>1718216</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>1714236</v>
+        <v>1718218</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>1714237</v>
+        <v>1718224</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>1714242</v>
+        <v>1718227</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>1714401</v>
+        <v>1718230</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>1718203</v>
+        <v>1718233</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>1718</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>1718206</v>
+        <v>1718235</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>1718</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>1718209</v>
+        <v>1718236</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>1718</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>1718212</v>
+        <v>1718238</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>1718</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>1718215</v>
+        <v>1722201</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>1718216</v>
+        <v>1722202</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>1718218</v>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1718</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>327</v>
+      <c r="A87" s="0" t="n">
+        <v>1722203</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>1718224</v>
+        <v>1722204</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>1718227</v>
+        <v>1722207</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>1718230</v>
+        <v>1722210</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>1718233</v>
+        <v>1722212</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>1718235</v>
+        <v>1722214</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>1718236</v>
+        <v>1722215</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>1718238</v>
+        <v>1722217</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>1718401</v>
+        <v>1722220</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>64</v>
+        <v>378</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>1718406</v>
+        <v>1722221</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>64</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>1722201</v>
+        <v>1722223</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>1722</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>1722202</v>
+        <v>1722226</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>1722</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>1722203</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>1722</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>370</v>
+      <c r="A99" s="1" t="n">
+        <v>1724206</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>1722204</v>
+        <v>1724212</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>1722207</v>
+        <v>1724216</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>1722210</v>
+        <v>1724220</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>1722212</v>
+        <v>1724226</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>1722214</v>
+        <v>1724228</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>1722215</v>
+        <v>1724231</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>1722217</v>
+        <v>1724235</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>1722220</v>
+        <v>1726262</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>1722221</v>
+        <v>1726264</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>1722223</v>
+        <v>1726266</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>1722226</v>
+        <v>1726269</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>1722401</v>
+        <v>1726273</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>1724206</v>
+        <v>1726277</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>1724212</v>
+        <v>1726280</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>1724216</v>
+        <v>1726283</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>1724220</v>
+        <v>1726287</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>431</v>
+        <v>347</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>1724226</v>
+        <v>1726290</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>1724228</v>
+        <v>1726294</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>1724231</v>
+        <v>1727206</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>1724235</v>
+        <v>1727212</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>1724401</v>
+        <v>1727220</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>1724410</v>
+        <v>1727224</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>1724413</v>
+        <v>1727228</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>64</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>1726262</v>
+        <v>1727233</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>64</v>
+        <v>468</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>1726264</v>
+        <v>1727237</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>64</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>1726266</v>
+        <v>1727239</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>1726269</v>
+        <v>1727248</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>64</v>
+        <v>479</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>64</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>1726273</v>
+        <v>1727249</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>64</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>1726277</v>
+        <v>1727250</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>64</v>
+        <v>487</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>64</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>1726280</v>
+        <v>1727253</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>64</v>
+        <v>491</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>64</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>1726283</v>
+        <v>1727256</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>64</v>
+        <v>495</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>64</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>1726287</v>
+        <v>1727259</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>64</v>
+        <v>499</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>64</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>1726290</v>
+        <v>1727265</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>1726294</v>
+        <v>1730203</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>64</v>
+        <v>504</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>64</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>1727206</v>
+        <v>1730206</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>1727212</v>
+        <v>1730209</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>1727220</v>
+        <v>1730212</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>1727224</v>
+        <v>1730215</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>1727228</v>
+        <v>1730218</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>1727233</v>
+        <v>1730221</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>1727237</v>
+        <v>1730224</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>1727239</v>
+        <v>1730226</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>98</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>1727248</v>
+        <v>1730227</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>1727249</v>
+        <v>1730230</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>1727250</v>
+        <v>1730233</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>1727253</v>
+        <v>1730236</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>1727256</v>
+        <v>1730238</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>1727259</v>
+        <v>1730242</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>1727265</v>
+        <v>1733204</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>64</v>
+        <v>564</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>64</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>1727401</v>
+        <v>1733208</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>64</v>
+        <v>568</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>64</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>1727404</v>
+        <v>1733212</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>64</v>
+        <v>572</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>64</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>1727407</v>
+        <v>1733217</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>64</v>
+        <v>576</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>64</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>1727413</v>
+        <v>1733220</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>64</v>
+        <v>580</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>64</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>1727415</v>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>540</v>
+      <c r="A153" s="0" t="n">
+        <v>1733221</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>582</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>1727419</v>
+        <v>1733223</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>64</v>
+        <v>585</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>64</v>
+        <v>586</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>1727424</v>
+        <v>1733226</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>64</v>
+        <v>589</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>64</v>
+        <v>590</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>1730203</v>
+        <v>1733230</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>1730206</v>
+        <v>1733233</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>1730209</v>
+        <v>1733236</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>554</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>1730212</v>
+        <v>1735204</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>1730215</v>
+        <v>1735207</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>1730218</v>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1730</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>564</v>
+      <c r="A161" s="0" t="n">
+        <v>1735209</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>609</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>565</v>
+        <v>347</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>566</v>
+        <v>347</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>1730221</v>
+        <v>1735211</v>
       </c>
       <c r="B162" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>1730224</v>
+        <v>1735212</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>1730226</v>
+        <v>1735215</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>1730227</v>
+        <v>1735218</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>1730230</v>
+        <v>1735222</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>1730233</v>
+        <v>1735225</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>1730236</v>
+        <v>1735228</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>593</v>
+        <v>347</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>594</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>1730238</v>
+        <v>1735230</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>1730242</v>
+        <v>1735233</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>1730401</v>
+        <v>1735236</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>64</v>
+        <v>645</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>64</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>1730405</v>
+        <v>1735240</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>64</v>
+        <v>649</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>64</v>
+        <v>650</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>1730408</v>
+        <v>1735243</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>607</v>
+        <v>651</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>64</v>
+        <v>653</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>64</v>
+        <v>654</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>1730412</v>
+        <v>1735250</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>64</v>
+        <v>657</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
-        <v>1733204</v>
-      </c>
-      <c r="B175" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
-        <v>1733208</v>
-      </c>
-      <c r="B176" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
-        <v>1733212</v>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
-        <v>1733217</v>
-      </c>
-      <c r="B178" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>1733220</v>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
-        <v>1733221</v>
-      </c>
-      <c r="B180" s="0" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
-        <v>1733223</v>
-      </c>
-      <c r="B181" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>1733226</v>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>1733230</v>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>1733233</v>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>1733236</v>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>1733401</v>
-      </c>
-      <c r="B186" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
-        <v>1733406</v>
-      </c>
-      <c r="B187" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
-        <v>1735204</v>
-      </c>
-      <c r="B188" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>1735207</v>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D189" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
-        <v>1735209</v>
-      </c>
-      <c r="B190" s="0" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
-        <v>1735211</v>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
-        <v>1735212</v>
-      </c>
-      <c r="B192" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>1735215</v>
-      </c>
-      <c r="B193" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>1735218</v>
-      </c>
-      <c r="B194" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
-        <v>1735222</v>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
-        <v>1735225</v>
-      </c>
-      <c r="B196" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
-        <v>1735228</v>
-      </c>
-      <c r="B197" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
-        <v>1735230</v>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
-        <v>1735233</v>
-      </c>
-      <c r="B199" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
-        <v>1735236</v>
-      </c>
-      <c r="B200" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
-        <v>1735240</v>
-      </c>
-      <c r="B201" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
-        <v>1735243</v>
-      </c>
-      <c r="B202" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
-        <v>1735250</v>
-      </c>
-      <c r="B203" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
-        <v>1735401</v>
-      </c>
-      <c r="B204" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
